--- a/modelos/OBACON4426076/OBACON4426076_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426076/OBACON4426076_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,119 +473,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>380.1336763166702</v>
+        <v>385.7658524827927</v>
       </c>
       <c r="C2" t="n">
-        <v>245.5312046894937</v>
+        <v>237.8555197288211</v>
       </c>
       <c r="D2" t="n">
-        <v>526.645392096684</v>
+        <v>540.5158411826591</v>
       </c>
       <c r="E2" t="n">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>432.9393532469201</v>
+        <v>386.2441818619777</v>
       </c>
       <c r="C3" t="n">
-        <v>280.0684061150599</v>
+        <v>241.1489365580834</v>
       </c>
       <c r="D3" t="n">
-        <v>563.4675684623564</v>
+        <v>535.7508634693809</v>
       </c>
       <c r="E3" t="n">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B4" t="n">
-        <v>449.5947417496609</v>
+        <v>427.4831307354423</v>
       </c>
       <c r="C4" t="n">
-        <v>306.5964469652803</v>
+        <v>275.6427844346547</v>
       </c>
       <c r="D4" t="n">
-        <v>598.7926565665485</v>
+        <v>563.9133514710562</v>
       </c>
       <c r="E4" t="n">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B5" t="n">
-        <v>320.348148078503</v>
+        <v>455.4993704490748</v>
       </c>
       <c r="C5" t="n">
-        <v>176.9197417349066</v>
+        <v>303.6771595631684</v>
       </c>
       <c r="D5" t="n">
-        <v>457.6981179154415</v>
+        <v>599.2305401764653</v>
       </c>
       <c r="E5" t="n">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B6" t="n">
-        <v>249.8658518270074</v>
+        <v>314.4130155710106</v>
       </c>
       <c r="C6" t="n">
-        <v>104.2827308548184</v>
+        <v>177.0844116681793</v>
       </c>
       <c r="D6" t="n">
-        <v>396.3488419868851</v>
+        <v>451.5326510052311</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B7" t="n">
-        <v>395.7340389615483</v>
+        <v>256.8638021711175</v>
       </c>
       <c r="C7" t="n">
-        <v>247.4529582705223</v>
+        <v>116.7210316334499</v>
       </c>
       <c r="D7" t="n">
-        <v>538.7605905313565</v>
+        <v>401.0010814961913</v>
       </c>
       <c r="E7" t="n">
-        <v>456</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44866</v>
@@ -593,119 +593,119 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B8" t="n">
-        <v>396.3671128211932</v>
+        <v>410.4697068321262</v>
       </c>
       <c r="C8" t="n">
-        <v>252.7747411326464</v>
+        <v>258.0357031013032</v>
       </c>
       <c r="D8" t="n">
-        <v>536.3683775658022</v>
+        <v>551.6854008377384</v>
       </c>
       <c r="E8" t="n">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44957</v>
+        <v>44880</v>
       </c>
       <c r="B9" t="n">
-        <v>317.4851702248291</v>
+        <v>390.5923326713066</v>
       </c>
       <c r="C9" t="n">
-        <v>166.516521074972</v>
+        <v>255.6945004325557</v>
       </c>
       <c r="D9" t="n">
-        <v>463.6497817728871</v>
+        <v>531.6397598698848</v>
       </c>
       <c r="E9" t="n">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44950</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="B10" t="n">
-        <v>340.5131631309106</v>
+        <v>334.3202692391859</v>
       </c>
       <c r="C10" t="n">
-        <v>196.4086501992012</v>
+        <v>192.9333043858231</v>
       </c>
       <c r="D10" t="n">
-        <v>489.4940162297603</v>
+        <v>469.4469417102271</v>
       </c>
       <c r="E10" t="n">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B11" t="n">
-        <v>272.6921571991127</v>
+        <v>337.6060151797602</v>
       </c>
       <c r="C11" t="n">
-        <v>130.5894561361654</v>
+        <v>186.5966395629785</v>
       </c>
       <c r="D11" t="n">
-        <v>410.2285431429854</v>
+        <v>473.9359904391003</v>
       </c>
       <c r="E11" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B12" t="n">
-        <v>206.0405255522472</v>
+        <v>273.4136094230377</v>
       </c>
       <c r="C12" t="n">
-        <v>55.05798302192762</v>
+        <v>138.7662721849773</v>
       </c>
       <c r="D12" t="n">
-        <v>350.0862504813602</v>
+        <v>409.0177317557725</v>
       </c>
       <c r="E12" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B13" t="n">
-        <v>372.0039309192498</v>
+        <v>236.3282084990481</v>
       </c>
       <c r="C13" t="n">
-        <v>226.7509484214695</v>
+        <v>99.32101613599107</v>
       </c>
       <c r="D13" t="n">
-        <v>514.4407621459483</v>
+        <v>369.347638213218</v>
       </c>
       <c r="E13" t="n">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44978</v>
@@ -713,39 +713,39 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B14" t="n">
-        <v>257.2514769098439</v>
+        <v>412.3992776537414</v>
       </c>
       <c r="C14" t="n">
-        <v>100.6907137774074</v>
+        <v>253.9133490977871</v>
       </c>
       <c r="D14" t="n">
-        <v>397.0424489985962</v>
+        <v>546.2382526566104</v>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B15" t="n">
-        <v>516.58803514086</v>
+        <v>288.6857891555434</v>
       </c>
       <c r="C15" t="n">
-        <v>371.3189719734863</v>
+        <v>159.5212709827579</v>
       </c>
       <c r="D15" t="n">
-        <v>663.5315279283506</v>
+        <v>431.4500238610385</v>
       </c>
       <c r="E15" t="n">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>44985</v>
@@ -753,101 +753,121 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B16" t="n">
-        <v>510.1994549981537</v>
+        <v>551.834442155386</v>
       </c>
       <c r="C16" t="n">
-        <v>361.6297703409322</v>
+        <v>400.829873255421</v>
       </c>
       <c r="D16" t="n">
-        <v>654.3596185625994</v>
+        <v>685.5821630074082</v>
       </c>
       <c r="E16" t="n">
-        <v>576</v>
+        <v>384</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B17" t="n">
-        <v>263.3056728221385</v>
+        <v>507.1593042002452</v>
       </c>
       <c r="C17" t="n">
-        <v>120.3351009591249</v>
+        <v>357.6384428869815</v>
       </c>
       <c r="D17" t="n">
-        <v>409.6857645152839</v>
+        <v>645.3989867733218</v>
       </c>
       <c r="E17" t="n">
-        <v>228</v>
+        <v>576</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B18" t="n">
-        <v>355.2021861200153</v>
+        <v>278.1055306431854</v>
       </c>
       <c r="C18" t="n">
-        <v>216.2184741151701</v>
+        <v>130.8617223646162</v>
       </c>
       <c r="D18" t="n">
-        <v>497.4286541269977</v>
+        <v>420.7117791034357</v>
       </c>
       <c r="E18" t="n">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45048</v>
+        <v>45027</v>
       </c>
       <c r="B19" t="n">
-        <v>638.6006979859516</v>
+        <v>366.0261775076486</v>
       </c>
       <c r="C19" t="n">
-        <v>487.9386072219241</v>
+        <v>221.3269748701737</v>
       </c>
       <c r="D19" t="n">
-        <v>787.1641264160249</v>
+        <v>514.4205717510716</v>
       </c>
       <c r="E19" t="n">
-        <v>900</v>
+        <v>432</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45041</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B20" t="n">
+        <v>638.4047406105625</v>
+      </c>
+      <c r="C20" t="n">
+        <v>500.4708855616742</v>
+      </c>
+      <c r="D20" t="n">
+        <v>776.2569376487482</v>
+      </c>
+      <c r="E20" t="n">
+        <v>900</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="B20" t="n">
-        <v>521.0320983730246</v>
-      </c>
-      <c r="C20" t="n">
-        <v>381.6528960667687</v>
-      </c>
-      <c r="D20" t="n">
-        <v>663.4017199578658</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="B21" t="n">
+        <v>517.3794262405731</v>
+      </c>
+      <c r="C21" t="n">
+        <v>369.8714347609027</v>
+      </c>
+      <c r="D21" t="n">
+        <v>660.0740806925927</v>
+      </c>
+      <c r="E21" t="n">
         <v>348</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F21" s="2" t="n">
         <v>45048</v>
       </c>
     </row>
@@ -862,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,106 +934,80 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2112.273291513642</v>
+        <v>40325.81444374823</v>
       </c>
       <c r="C2" t="n">
-        <v>45.9594744477528</v>
+        <v>200.8128841577358</v>
       </c>
       <c r="D2" t="n">
-        <v>45.9594744477528</v>
+        <v>200.7747956633305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1823788668561619</v>
+        <v>2.858899477351833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1823788668561619</v>
+        <v>2.858899477351833</v>
       </c>
       <c r="G2" t="n">
-        <v>0.200678638172204</v>
+        <v>1.170506513954982</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>33032.55797071864</v>
+        <v>25005.46803876411</v>
       </c>
       <c r="C3" t="n">
-        <v>181.7486120186854</v>
+        <v>158.1311735198475</v>
       </c>
       <c r="D3" t="n">
-        <v>181.5586643684256</v>
+        <v>149.5939056171705</v>
       </c>
       <c r="E3" t="n">
-        <v>2.613474223021751</v>
+        <v>1.657257645090293</v>
       </c>
       <c r="F3" t="n">
-        <v>2.613474223021751</v>
+        <v>1.446175699006897</v>
       </c>
       <c r="G3" t="n">
-        <v>1.12043008092294</v>
+        <v>0.7707936051249908</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>10888.53600741318</v>
+        <v>13696.97964630145</v>
       </c>
       <c r="C4" t="n">
-        <v>104.348148078503</v>
+        <v>117.0340960844379</v>
       </c>
       <c r="D4" t="n">
-        <v>104.348148078503</v>
+        <v>96.9956929323638</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4830932781412174</v>
+        <v>0.259607771058771</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4830932781412174</v>
+        <v>0.2036071201220004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3891060254513267</v>
+        <v>0.2324122811586937</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13179.85054323473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>114.8035301862914</v>
-      </c>
-      <c r="D5" t="n">
-        <v>96.38865689257523</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2503109660933571</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.202609314574778</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2309408417782164</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8666666666666671</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACON4426076/OBACON4426076_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426076/OBACON4426076_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,402 +473,382 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
       <c r="B2" t="n">
-        <v>385.7658524827927</v>
+        <v>428.8199286489356</v>
       </c>
       <c r="C2" t="n">
-        <v>237.8555197288211</v>
+        <v>286.9571929365982</v>
       </c>
       <c r="D2" t="n">
-        <v>540.5158411826591</v>
+        <v>560.6231434155286</v>
       </c>
       <c r="E2" t="n">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B3" t="n">
-        <v>386.2441818619777</v>
+        <v>450.1953336038982</v>
       </c>
       <c r="C3" t="n">
-        <v>241.1489365580834</v>
+        <v>301.2694509673061</v>
       </c>
       <c r="D3" t="n">
-        <v>535.7508634693809</v>
+        <v>590.2917975619637</v>
       </c>
       <c r="E3" t="n">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B4" t="n">
-        <v>427.4831307354423</v>
+        <v>311.3511526521117</v>
       </c>
       <c r="C4" t="n">
-        <v>275.6427844346547</v>
+        <v>165.7918410820932</v>
       </c>
       <c r="D4" t="n">
-        <v>563.9133514710562</v>
+        <v>451.2336429581686</v>
       </c>
       <c r="E4" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B5" t="n">
-        <v>455.4993704490748</v>
+        <v>253.3111394577712</v>
       </c>
       <c r="C5" t="n">
-        <v>303.6771595631684</v>
+        <v>113.5505463249263</v>
       </c>
       <c r="D5" t="n">
-        <v>599.2305401764653</v>
+        <v>398.9357152794749</v>
       </c>
       <c r="E5" t="n">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="B6" t="n">
-        <v>314.4130155710106</v>
+        <v>404.7582386399957</v>
       </c>
       <c r="C6" t="n">
-        <v>177.0844116681793</v>
+        <v>246.0681202725787</v>
       </c>
       <c r="D6" t="n">
-        <v>451.5326510052311</v>
+        <v>553.3928295681567</v>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>456</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B7" t="n">
-        <v>256.8638021711175</v>
+        <v>399.2961425462166</v>
       </c>
       <c r="C7" t="n">
-        <v>116.7210316334499</v>
+        <v>243.9296889102561</v>
       </c>
       <c r="D7" t="n">
-        <v>401.0010814961913</v>
+        <v>537.4256748381558</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44873</v>
+        <v>44957</v>
       </c>
       <c r="B8" t="n">
-        <v>410.4697068321262</v>
+        <v>329.9038521825229</v>
       </c>
       <c r="C8" t="n">
-        <v>258.0357031013032</v>
+        <v>195.5957705371358</v>
       </c>
       <c r="D8" t="n">
-        <v>551.6854008377384</v>
+        <v>476.2865434602868</v>
       </c>
       <c r="E8" t="n">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44866</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44880</v>
+        <v>44964</v>
       </c>
       <c r="B9" t="n">
-        <v>390.5923326713066</v>
+        <v>335.1880729698504</v>
       </c>
       <c r="C9" t="n">
-        <v>255.6945004325557</v>
+        <v>201.0335655659461</v>
       </c>
       <c r="D9" t="n">
-        <v>531.6397598698848</v>
+        <v>467.0594836573403</v>
       </c>
       <c r="E9" t="n">
-        <v>468</v>
+        <v>264</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44873</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44957</v>
+        <v>44971</v>
       </c>
       <c r="B10" t="n">
-        <v>334.3202692391859</v>
+        <v>285.3466892611027</v>
       </c>
       <c r="C10" t="n">
-        <v>192.9333043858231</v>
+        <v>141.5645932135247</v>
       </c>
       <c r="D10" t="n">
-        <v>469.4469417102271</v>
+        <v>436.3658220470431</v>
       </c>
       <c r="E10" t="n">
-        <v>432</v>
+        <v>300</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44950</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B11" t="n">
-        <v>337.6060151797602</v>
+        <v>240.9315642069639</v>
       </c>
       <c r="C11" t="n">
-        <v>186.5966395629785</v>
+        <v>97.22872437468622</v>
       </c>
       <c r="D11" t="n">
-        <v>473.9359904391003</v>
+        <v>376.4664658212578</v>
       </c>
       <c r="E11" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B12" t="n">
-        <v>273.4136094230377</v>
+        <v>411.1796601473083</v>
       </c>
       <c r="C12" t="n">
-        <v>138.7662721849773</v>
+        <v>273.603635650361</v>
       </c>
       <c r="D12" t="n">
-        <v>409.0177317557725</v>
+        <v>552.4535539727048</v>
       </c>
       <c r="E12" t="n">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B13" t="n">
-        <v>236.3282084990481</v>
+        <v>288.3859110345834</v>
       </c>
       <c r="C13" t="n">
-        <v>99.32101613599107</v>
+        <v>150.7613878381526</v>
       </c>
       <c r="D13" t="n">
-        <v>369.347638213218</v>
+        <v>427.9040446787299</v>
       </c>
       <c r="E13" t="n">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B14" t="n">
+        <v>546.7862423790525</v>
+      </c>
+      <c r="C14" t="n">
+        <v>401.8752647169098</v>
+      </c>
+      <c r="D14" t="n">
+        <v>694.4867789948294</v>
+      </c>
+      <c r="E14" t="n">
+        <v>384</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B14" t="n">
-        <v>412.3992776537414</v>
-      </c>
-      <c r="C14" t="n">
-        <v>253.9133490977871</v>
-      </c>
-      <c r="D14" t="n">
-        <v>546.2382526566104</v>
-      </c>
-      <c r="E14" t="n">
-        <v>228</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44988</v>
+        <v>45006</v>
       </c>
       <c r="B15" t="n">
-        <v>288.6857891555434</v>
+        <v>514.1259728543203</v>
       </c>
       <c r="C15" t="n">
-        <v>159.5212709827579</v>
+        <v>376.0337280088596</v>
       </c>
       <c r="D15" t="n">
-        <v>431.4500238610385</v>
+        <v>660.4589203162408</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>576</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44992</v>
+        <v>45020</v>
       </c>
       <c r="B16" t="n">
-        <v>551.834442155386</v>
+        <v>261.7649160552972</v>
       </c>
       <c r="C16" t="n">
-        <v>400.829873255421</v>
+        <v>117.8873174980975</v>
       </c>
       <c r="D16" t="n">
-        <v>685.5821630074082</v>
+        <v>402.6471076365258</v>
       </c>
       <c r="E16" t="n">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44985</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45006</v>
+        <v>45027</v>
       </c>
       <c r="B17" t="n">
-        <v>507.1593042002452</v>
+        <v>362.1488965760486</v>
       </c>
       <c r="C17" t="n">
-        <v>357.6384428869815</v>
+        <v>218.6627343994415</v>
       </c>
       <c r="D17" t="n">
-        <v>645.3989867733218</v>
+        <v>505.3762529671016</v>
       </c>
       <c r="E17" t="n">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44999</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45020</v>
+        <v>45048</v>
       </c>
       <c r="B18" t="n">
-        <v>278.1055306431854</v>
+        <v>642.8685881292574</v>
       </c>
       <c r="C18" t="n">
-        <v>130.8617223646162</v>
+        <v>503.9256241719256</v>
       </c>
       <c r="D18" t="n">
-        <v>420.7117791034357</v>
+        <v>799.4612596393762</v>
       </c>
       <c r="E18" t="n">
-        <v>228</v>
+        <v>900</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45027</v>
+        <v>45055</v>
       </c>
       <c r="B19" t="n">
-        <v>366.0261775076486</v>
+        <v>524.8503218590425</v>
       </c>
       <c r="C19" t="n">
-        <v>221.3269748701737</v>
+        <v>379.4930419749633</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4205717510716</v>
+        <v>667.5960757900214</v>
       </c>
       <c r="E19" t="n">
-        <v>432</v>
+        <v>348</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45020</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B20" t="n">
-        <v>638.4047406105625</v>
+        <v>324.7657606716059</v>
       </c>
       <c r="C20" t="n">
-        <v>500.4708855616742</v>
+        <v>189.6169283879433</v>
       </c>
       <c r="D20" t="n">
-        <v>776.2569376487482</v>
+        <v>463.7198750678157</v>
       </c>
       <c r="E20" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
         <v>45055</v>
-      </c>
-      <c r="B21" t="n">
-        <v>517.3794262405731</v>
-      </c>
-      <c r="C21" t="n">
-        <v>369.8714347609027</v>
-      </c>
-      <c r="D21" t="n">
-        <v>660.0740806925927</v>
-      </c>
-      <c r="E21" t="n">
-        <v>348</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>45048</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,80 +914,106 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>40325.81444374823</v>
+        <v>122.5102709045618</v>
       </c>
       <c r="C2" t="n">
-        <v>200.8128841577358</v>
+        <v>11.06843579303606</v>
       </c>
       <c r="D2" t="n">
-        <v>200.7747956633305</v>
+        <v>11.06843579303606</v>
       </c>
       <c r="E2" t="n">
-        <v>2.858899477351833</v>
+        <v>0.0439223642580796</v>
       </c>
       <c r="F2" t="n">
-        <v>2.858899477351833</v>
+        <v>0.0439223642580796</v>
       </c>
       <c r="G2" t="n">
-        <v>1.170506513954982</v>
+        <v>0.04490861043091502</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>25005.46803876411</v>
+        <v>39571.39863394925</v>
       </c>
       <c r="C3" t="n">
-        <v>158.1311735198475</v>
+        <v>198.9256108045147</v>
       </c>
       <c r="D3" t="n">
-        <v>149.5939056171705</v>
+        <v>198.8485252461773</v>
       </c>
       <c r="E3" t="n">
-        <v>1.657257645090293</v>
+        <v>2.827508965925375</v>
       </c>
       <c r="F3" t="n">
-        <v>1.446175699006897</v>
+        <v>2.827508965925375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7707936051249908</v>
+        <v>1.165849260049554</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9091.842312086306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>95.35115265211169</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95.35115265211169</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4414405215375541</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4414405215375541</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3616229989166778</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>13696.97964630145</v>
-      </c>
-      <c r="C4" t="n">
-        <v>117.0340960844379</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.9956929323638</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.259607771058771</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2036071201220004</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2324122811586937</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.75</v>
+      <c r="B5" t="n">
+        <v>19626.23476506618</v>
+      </c>
+      <c r="C5" t="n">
+        <v>140.0936642574038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>115.8067904097018</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7902915407926088</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2363336755034191</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3348885532341264</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6666666666666661</v>
       </c>
     </row>
   </sheetData>
